--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A369091-4C94-4551-98E5-A554530BBA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBDB73-CDCF-4469-8231-267C0AAE25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Ograniczenie mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>Value in Region [PJ/a]</t>
+  </si>
+  <si>
+    <t>IMP_HYDROGEN</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HYDROGEN_CCGT</t>
   </si>
 </sst>
 </file>
@@ -248,19 +260,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -269,6 +278,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -573,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -592,65 +607,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="4">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="3">
         <v>0.8</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -661,15 +676,15 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="I5">
         <v>0</v>
       </c>
@@ -682,19 +697,19 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2025</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6">
@@ -717,20 +732,20 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2030</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>K6</f>
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I7">
@@ -753,20 +768,20 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2035</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>M7</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I8">
@@ -789,20 +804,20 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2040</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>M8</f>
         <v>14.4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I9">
@@ -817,19 +832,19 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2045</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I10">
@@ -844,19 +859,19 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2050</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -868,79 +883,319 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2035</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f>L7</f>
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2040</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f>L8</f>
         <v>9.6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>2040</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f>K11</f>
         <v>22.8</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2030</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2035</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2040</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2050</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>2030</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>2035</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>2040</v>
+      </c>
+      <c r="E34">
+        <v>150</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>2050</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -955,12 +1210,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,20 +1416,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1197,14 +1457,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBDB73-CDCF-4469-8231-267C0AAE25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CE1DC-BA97-45B8-97DB-396C76672520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -129,13 +129,22 @@
   </si>
   <si>
     <t>ELE_NEW_HYDROGEN_CCGT</t>
+  </si>
+  <si>
+    <t>MIN_PINK_HYDROGEN</t>
+  </si>
+  <si>
+    <t>ELE_NEW_FUEL_CELL</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -169,8 +178,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +219,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,10 +277,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,9 +313,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{E38A15AC-A688-42F6-8A0E-D37B1D389027}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{669C68C9-4985-4317-AD4D-893368D53800}"/>
+    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{F556256E-E096-4778-B35D-6FA5DA4CD659}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="3" xr:uid="{4F19F413-AA8B-4EBE-9C7D-2B08C7C3F6F2}"/>
+    <cellStyle name="Normalny 2" xfId="4" xr:uid="{63F33410-ACDD-44C8-ACE3-2A88C098D5CA}"/>
+    <cellStyle name="Normalny 3" xfId="8" xr:uid="{AA09C661-5AEE-47F2-B089-369A2E36AC32}"/>
+    <cellStyle name="Procentowy 2" xfId="9" xr:uid="{372B4A66-A7B1-454C-9122-20EF0BC230F3}"/>
+    <cellStyle name="Procentowy 3" xfId="7" xr:uid="{0FC7B095-9382-42C1-B6E1-FE87CC83691B}"/>
+    <cellStyle name="Procentowy 4" xfId="6" xr:uid="{0E92844F-000F-4238-A2A9-A124F1EC9F1D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1053,149 +1096,301 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2030</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2040</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2050</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="29" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
+      <c r="B27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2050</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2030</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E29" s="16">
+        <v>10</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2040</v>
+      </c>
+      <c r="E30" s="16">
+        <v>15</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2050</v>
+      </c>
+      <c r="E31" s="16">
         <v>0</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="F31" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2050</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+    <row r="38" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32">
+      <c r="D39">
         <v>2030</v>
       </c>
-      <c r="E32">
+      <c r="E39">
         <v>20</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33">
+      <c r="D40">
         <v>2035</v>
       </c>
-      <c r="E33">
+      <c r="E40">
         <v>80</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34">
+      <c r="D41">
         <v>2040</v>
       </c>
-      <c r="E34">
+      <c r="E41">
         <v>150</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35">
+      <c r="D42">
         <v>2050</v>
       </c>
-      <c r="E35">
+      <c r="E42">
         <v>250</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>2035</v>
+      </c>
+      <c r="E43">
+        <v>250</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CE1DC-BA97-45B8-97DB-396C76672520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FF72F-D906-449B-AD1E-B19B2D7AB5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -307,17 +307,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{E38A15AC-A688-42F6-8A0E-D37B1D389027}"/>
@@ -633,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L29:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -674,11 +670,11 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="3">
         <v>0.8</v>
       </c>
@@ -1096,172 +1092,172 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4">
         <v>2030</v>
       </c>
       <c r="E23" s="5">
         <v>0.05</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5">
         <v>2035</v>
       </c>
       <c r="E24" s="4">
         <v>0.15</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4">
         <v>2040</v>
       </c>
       <c r="E25" s="5">
         <v>0.5</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
         <v>2050</v>
       </c>
       <c r="E26" s="4">
         <v>0.8</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="4">
         <v>2050</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
         <v>2030</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="4">
         <v>3</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
         <v>2035</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="4">
         <v>10</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
         <v>2040</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="4">
         <v>15</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="B31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5">
         <v>2050</v>
       </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="4">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="4">
         <v>2050</v>
       </c>
       <c r="E32">
         <v>25</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1321,7 +1317,7 @@
       <c r="E39">
         <v>20</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1338,7 +1334,7 @@
       <c r="E40">
         <v>80</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1355,7 +1351,7 @@
       <c r="E41">
         <v>150</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1372,7 +1368,7 @@
       <c r="E42">
         <v>250</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1389,7 +1385,7 @@
       <c r="E43">
         <v>250</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1405,14 +1401,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1611,23 +1605,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1652,9 +1643,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FF72F-D906-449B-AD1E-B19B2D7AB5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C03813-4306-4339-9509-B2E2BD46EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L29:L31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4">
         <v>2030</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>7</v>
@@ -1204,24 +1204,24 @@
         <v>2035</v>
       </c>
       <c r="E29" s="4">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2040</v>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2035</v>
       </c>
       <c r="E30" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>34</v>
@@ -1235,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="D31" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E31" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>34</v>
@@ -1249,93 +1249,93 @@
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4">
-        <v>2050</v>
-      </c>
-      <c r="E32">
-        <v>25</v>
+        <v>2040</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E33" s="4">
+        <v>15</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2050</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+    <row r="40" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>2030</v>
-      </c>
-      <c r="E39">
-        <v>20</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>2035</v>
-      </c>
-      <c r="E40">
-        <v>80</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>28</v>
       </c>
       <c r="D41">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E41">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>30</v>
@@ -1363,10 +1363,10 @@
         <v>28</v>
       </c>
       <c r="D42">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E42">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>30</v>
@@ -1380,12 +1380,46 @@
         <v>28</v>
       </c>
       <c r="D43">
+        <v>2040</v>
+      </c>
+      <c r="E43">
+        <v>150</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>2050</v>
+      </c>
+      <c r="E44">
+        <v>250</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
         <v>2035</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>250</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1401,12 +1435,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,20 +1641,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1643,14 +1682,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C03813-4306-4339-9509-B2E2BD46EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9552676-9CDC-4DCB-AC07-988F294BDF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>34</v>
@@ -1272,7 +1272,7 @@
         <v>2050</v>
       </c>
       <c r="E33" s="4">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>34</v>
@@ -1446,6 +1446,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1640,15 +1649,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -1663,6 +1663,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1679,12 +1687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9552676-9CDC-4DCB-AC07-988F294BDF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -131,19 +130,19 @@
     <t>ELE_NEW_HYDROGEN_CCGT</t>
   </si>
   <si>
-    <t>MIN_PINK_HYDROGEN</t>
-  </si>
-  <si>
     <t>ELE_NEW_FUEL_CELL</t>
   </si>
   <si>
     <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>PRE_HYDROGEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -316,16 +315,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{E38A15AC-A688-42F6-8A0E-D37B1D389027}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{669C68C9-4985-4317-AD4D-893368D53800}"/>
-    <cellStyle name="Normal_MIN" xfId="5" xr:uid="{F556256E-E096-4778-B35D-6FA5DA4CD659}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal_MIN" xfId="5"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="3" xr:uid="{4F19F413-AA8B-4EBE-9C7D-2B08C7C3F6F2}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{63F33410-ACDD-44C8-ACE3-2A88C098D5CA}"/>
-    <cellStyle name="Normalny 3" xfId="8" xr:uid="{AA09C661-5AEE-47F2-B089-369A2E36AC32}"/>
-    <cellStyle name="Procentowy 2" xfId="9" xr:uid="{372B4A66-A7B1-454C-9122-20EF0BC230F3}"/>
-    <cellStyle name="Procentowy 3" xfId="7" xr:uid="{0FC7B095-9382-42C1-B6E1-FE87CC83691B}"/>
-    <cellStyle name="Procentowy 4" xfId="6" xr:uid="{0E92844F-000F-4238-A2A9-A124F1EC9F1D}"/>
+    <cellStyle name="Normalny 10" xfId="3"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
+    <cellStyle name="Normalny 3" xfId="8"/>
+    <cellStyle name="Procentowy 2" xfId="9"/>
+    <cellStyle name="Procentowy 3" xfId="7"/>
+    <cellStyle name="Procentowy 4" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -381,9 +380,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,26 +625,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="7" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -654,7 +653,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -682,7 +681,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -714,7 +713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
@@ -735,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -770,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -806,7 +805,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -842,7 +841,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -870,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -897,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -921,7 +920,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -932,7 +931,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -950,7 +949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -968,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -979,7 +978,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -997,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1005,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1105,10 +1104,10 @@
         <v>0.05</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1122,10 +1121,10 @@
         <v>0.15</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1139,10 +1138,10 @@
         <v>0.5</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
@@ -1156,10 +1155,10 @@
         <v>0.8</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
@@ -1173,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1190,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1207,10 +1206,10 @@
         <v>1.5</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1224,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
@@ -1241,10 +1240,10 @@
         <v>3.5</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
@@ -1258,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
@@ -1275,10 +1274,10 @@
         <v>7.5</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1292,10 +1291,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1303,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1406,21 +1405,89 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D45">
+        <v>2030</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
         <v>2035</v>
       </c>
-      <c r="E45">
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>2040</v>
+      </c>
+      <c r="E47">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>2045</v>
+      </c>
+      <c r="E48">
         <v>250</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>32</v>
+      <c r="F48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>2050</v>
+      </c>
+      <c r="E49">
+        <v>250</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1446,15 +1513,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -1649,6 +1707,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
@@ -1663,14 +1730,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,4 +1746,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>